--- a/Companies/Diversified/ITC Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Diversified/ITC Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>9,876.45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9,676.20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9,672.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10,479.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>10,554.66</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10,479.24</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9,672.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9,676.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9,876.45</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>10554.66</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>9672.57</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>10051.824</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>107.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>152.37</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>107.49</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>99.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>152.37</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>78.20999999999999</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>105.048</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>9,954.66</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9,763.92</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9,772.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10,586.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>10,707.03</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10,586.73</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,772.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9,763.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9,954.66</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>10707.03</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>9763.92</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>10156.872</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2,894.90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2,858.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,941.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3,061.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3,052.92</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3,061.40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2,941.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2,858.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2,894.90</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3061.4</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>2858</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2961.826</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>990.89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>558.82</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>498.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>927.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,254.38</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>927.93</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>498.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>558.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>990.89</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1254.38</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>498.9</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>846.184</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-49.79</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>939.55</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>140.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-197.92</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>140.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>939.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-49.79</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>939.55</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-197.92</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>168.786</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>674.63</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>606.54</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>595.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>611.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>742.97</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>611.27</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>595.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>606.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>674.63</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>742.97</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>595.02</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>646.086</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>268.21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>282.42</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>290.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>303.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>298.69</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>303.99</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>290.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>282.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>268.21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>303.99</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>268.21</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>288.812</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,697.63</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,589.71</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,691.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,830.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,652.56</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,830.25</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,691.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,589.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,697.63</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1830.25</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1589.71</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1692.324</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,478.19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,479.09</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,613.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,840.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,903.43</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,840.02</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,613.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,479.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,478.19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3903.43</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3478.19</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3662.896</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>476.77</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>494.21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>626.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>516.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>403.85</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>516.50</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>626.92</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>494.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>476.77</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>626.92</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>403.85</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>503.65</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,954.96</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,973.30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4,240.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,356.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,307.28</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4,356.52</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4,240.67</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,973.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,954.96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4356.52</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3954.96</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>4166.546</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>7.34</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>23.24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>24.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>18.798</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>3,944.58</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,944.29</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,216.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4,333.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4,299.94</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4,333.28</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4,216.65</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,944.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3,944.58</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>4333.28</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>3944.29</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>4147.748</v>
       </c>
     </row>
     <row r="18">
@@ -1109,15 +960,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>412.9</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>412.9</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>412.9</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3,944.58</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3,944.29</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4,629.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4,333.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>4,299.94</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4,333.28</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4,629.55</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3,944.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3,944.58</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>4629.55</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>3944.29</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>4230.328</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,384.08</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,304.45</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,539.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,400.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,481.26</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,400.57</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,539.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,304.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,384.08</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1539.35</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1304.45</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1421.942</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,560.50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,639.84</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3,090.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,932.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,818.68</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,932.71</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3,090.20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,639.84</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,560.50</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>3090.2</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2560.5</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2808.386</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2,560.50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,639.84</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3,090.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2,932.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>2,818.68</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2,932.71</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3,090.20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2,639.84</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2,560.50</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>3090.2</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>2560.5</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2808.386</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>1,215.22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,218.36</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1,219.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1,220.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1,220.74</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1,220.43</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1,219.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1,218.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1,215.22</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1220.74</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1215.22</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>1218.76</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.31</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.308</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2.29</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>2.288</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2.31</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.308</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>2.29</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>2.288</v>
       </c>
     </row>
     <row r="32"/>
